--- a/biology/Zoologie/Hynobius_nebulosus/Hynobius_nebulosus.xlsx
+++ b/biology/Zoologie/Hynobius_nebulosus/Hynobius_nebulosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hynobius nebulosus est une espèce d'urodèles de la famille des Hynobiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hynobius nebulosus est une espèce d'urodèles de la famille des Hynobiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Japon. Elle se rencontre jusqu'à 300 m d'altitude dans le sud de l'île de Honshū, sur Shikoku, dans le nord de l'île de Kyūshū[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Japon. Elle se rencontre jusqu'à 300 m d'altitude dans le sud de l'île de Honshū, sur Shikoku, dans le nord de l'île de Kyūshū.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hynobius nebulosus mesure de 40 à 70 mm sans la queue et de 70 à 125 mm de longueur totale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hynobius nebulosus mesure de 40 à 70 mm sans la queue et de 70 à 125 mm de longueur totale.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Temminck &amp; Schlegel, 1838 : Fauna Japonica sive Descriptio animalium, quae in itinere per Japonianum, jussu et auspiciis superiorum, qui summum in India Batava Imperium tenent, suscepto, annis 1823–1830 colleget, notis observationibus et adumbrationibus illustratis. vol. 3, Chelonia, Ophidia, Sauria, Batrachia, p. 85-144.</t>
         </is>
